--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_8_2024-05-30_PH_120/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_8_2024-05-30_PH_120/output.xlsx
@@ -511,19 +511,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.011018059</t>
+          <t>0.018023243</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.06744278</t>
+          <t>0.077692136</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.067428604</t>
+          <t>0.067223154</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.19247921</t>
+          <t>0.19208203</t>
         </is>
       </c>
       <c r="D5" t="n">
